--- a/data/save_data/2023/mcfarland_t. j..xlsx
+++ b/data/save_data/2023/mcfarland_t. j..xlsx
@@ -502,7 +502,7 @@
         <v>-6</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -570,7 +570,7 @@
         <v>-3</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>-2</v>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
@@ -638,7 +638,7 @@
         <v>-3</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -672,7 +672,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -706,7 +706,7 @@
         <v>-3</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
@@ -774,7 +774,7 @@
         <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -808,7 +808,7 @@
         <v>-5</v>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -842,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>

--- a/data/save_data/2023/mcfarland_t. j..xlsx
+++ b/data/save_data/2023/mcfarland_t. j..xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>dS0</t>
+          <t>dSF</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dSF</t>
+          <t>d2S</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -496,10 +496,10 @@
         <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F2" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -567,7 +567,7 @@
         <v>-3</v>
       </c>
       <c r="F4" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -601,7 +601,7 @@
         <v>-2</v>
       </c>
       <c r="F5" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -635,7 +635,7 @@
         <v>-3</v>
       </c>
       <c r="F6" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -669,7 +669,7 @@
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>-3</v>
       </c>
       <c r="F8" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -734,10 +734,10 @@
         <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -768,10 +768,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -802,10 +802,10 @@
         <v>28</v>
       </c>
       <c r="E11" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="F11" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
